--- a/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
@@ -135,11 +135,11 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -445,13 +445,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="17.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.282054" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="19.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.996339" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="13.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
@@ -82,8 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
+  <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
+    <x:numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
   </x:numFmts>
   <x:fonts count="1">
     <x:font>
@@ -125,7 +126,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -138,7 +139,7 @@
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/Tests.CustomHeaders.verified.xlsx
@@ -45,9 +45,6 @@
     <x:t>john@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>True</x:t>
-  </x:si>
-  <x:si>
     <x:t>Full Time</x:t>
   </x:si>
   <x:si>
@@ -61,9 +58,6 @@
   </x:si>
   <x:si>
     <x:t>bob@company.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>False</x:t>
   </x:si>
   <x:si>
     <x:t>Part Time</x:t>
@@ -494,11 +488,11 @@
       <x:c r="E2" s="1">
         <x:v>75000</x:v>
       </x:c>
-      <x:c r="F2" s="1" t="s">
+      <x:c r="F2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
@@ -506,10 +500,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:v>43546</x:v>
@@ -517,11 +511,11 @@
       <x:c r="E3" s="1">
         <x:v>120000</x:v>
       </x:c>
-      <x:c r="F3" s="1" t="s">
+      <x:c r="F3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="G3" s="1" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
@@ -529,10 +523,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>44387</x:v>
@@ -540,11 +534,11 @@
       <x:c r="E4" s="1">
         <x:v>45000</x:v>
       </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>15</x:v>
+      <x:c r="F4" s="1" t="b">
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
@@ -552,10 +546,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>43409</x:v>
@@ -563,11 +557,11 @@
       <x:c r="E5" s="1">
         <x:v>95000</x:v>
       </x:c>
-      <x:c r="F5" s="1" t="s">
-        <x:v>9</x:v>
+      <x:c r="F5" s="1" t="b">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G5" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
